--- a/Naver/Results/FD_Crawling_Naver_Blog_20240805.xlsx
+++ b/Naver/Results/FD_Crawling_Naver_Blog_20240805.xlsx
@@ -476,27 +476,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>종로 노트북하기좋은 한옥카페 아마츄어작업실청계점 내돈내산 솔직후기</t>
+          <t>울산 찜닭 맛집 일미리금계찜닭 치즈덕후 추천 신메뉴 콰트로치즈찜닭 배달 후기</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/eating_review/223536046020</t>
+          <t>https://blog.naver.com/eunizzang73/223536204084</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA2F8FF40&gt;</t>
+          <t>일미리 금계찜닭 태화우정점</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA2A77190&gt;</t>
+          <t>울산광역시 중구 우암길 1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-08-05 00:15</t>
+          <t>2024-08-05 01:49</t>
         </is>
       </c>
     </row>
@@ -511,27 +511,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>전주한옥마을 주차 걱정없는 한옥초승달에서 즐기는 한옥체험숙박</t>
+          <t>종로 노트북하기좋은 한옥카페 아마츄어작업실청계점 내돈내산 솔직후기</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/grin3/223535893599</t>
+          <t>https://blog.naver.com/eating_review/223536046020</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA2A77D30&gt;</t>
+          <t>아마츄어작업실 청계점</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA2A77220&gt;</t>
+          <t>서울특별시 종로구 청계천로 97-8</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2024-08-05 00:15</t>
+          <t>2024-08-05 01:49</t>
         </is>
       </c>
     </row>
@@ -546,27 +546,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>울산 찜닭 맛집 일미리금계찜닭 치즈덕후 추천 신메뉴 콰트로치즈찜닭 배달 후기</t>
+          <t>안산 고잔동 맛집 안산국보만두 블루리본 만두전골</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/eunizzang73/223536204084</t>
+          <t>https://blog.naver.com/sconesss/223536055409</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA3327FA0&gt;</t>
+          <t>안산국보만두</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA3327A30&gt;</t>
+          <t>경기도 안산시 단원구 광덕서로 62 101동 102호</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2024-08-05 00:15</t>
+          <t>2024-08-05 01:49</t>
         </is>
       </c>
     </row>
@@ -581,27 +581,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>안산 고잔동 맛집 안산국보만두 블루리본 만두전골</t>
+          <t>전주덕진구카페 자연속 힐링과 쿠키체험 가능한 파프리카카페</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/sconesss/223536055409</t>
+          <t>https://blog.naver.com/grin3/223536214256</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA2A77BE0&gt;</t>
+          <t>파프리카</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA2A7D6D0&gt;</t>
+          <t>전북특별자치도 전주시 덕진구 번영로 46</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-08-05 00:15</t>
+          <t>2024-08-05 01:49</t>
         </is>
       </c>
     </row>
@@ -616,27 +616,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>전주덕진구카페 자연속 힐링과 쿠키체험 가능한 파프리카카페</t>
+          <t>제주 애월 흑돼지 맛집 오션뷰 작산 런치세트</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/grin3/223536214256</t>
+          <t>https://blog.naver.com/from____ming/223536192391</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA2A7D850&gt;</t>
+          <t>작산 애월흑돼지</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA22AB2E0&gt;</t>
+          <t>제주특별자치도 제주시 애월읍 가문동길 4 애월흑돼지 작산</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2024-08-05 00:15</t>
+          <t>2024-08-05 01:49</t>
         </is>
       </c>
     </row>
@@ -651,27 +651,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>제주 애월 흑돼지 맛집 오션뷰 작산 런치세트</t>
+          <t>전주객사카페 태리단길카페에서 즐기는 롱크림빵과 상큼한 음료</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/from____ming/223536192391</t>
+          <t>https://blog.naver.com/grin3/223536074648</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA332ED60&gt;</t>
+          <t>태리단길카페</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA332E400&gt;</t>
+          <t>전북특별자치도 전주시 완산구 태평4길 11 대양아리스타 상가 1층 태리단길 카페</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2024-08-05 00:15</t>
+          <t>2024-08-05 01:49</t>
         </is>
       </c>
     </row>
@@ -686,27 +686,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>전주객사카페 태리단길카페에서 즐기는 롱크림빵과 상큼한 음료</t>
+          <t>명동역카페 카페 드 파리 리얼 메론 빙수 맛집</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/grin3/223536074648</t>
+          <t>https://blog.naver.com/goodjobtoday_/223535973903</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA332E9D0&gt;</t>
+          <t>카페 드 파리 명동점</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA332ED30&gt;</t>
+          <t>서울특별시 중구 명동4길 26 2층</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2024-08-05 00:15</t>
+          <t>2024-08-05 01:49</t>
         </is>
       </c>
     </row>
@@ -721,27 +721,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>명동역카페 카페 드 파리 리얼 메론 빙수 맛집</t>
+          <t>무탄 스테이크 트러플 자장면 유린기 멘보샤를 시그니처 세트로 한번에 짜장면 랩소디 삼성역 코엑스 맛집</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/goodjobtoday_/223535973903</t>
+          <t>https://blog.naver.com/ejdh90/223536389270</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA332E160&gt;</t>
+          <t>무탄 코엑스점</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA332E940&gt;</t>
+          <t>서울특별시 강남구 영동대로 513 스타필드 코엑스 B1층 H121호</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2024-08-05 00:15</t>
+          <t>2024-08-05 01:49</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>무탄 스테이크 트러플 자장면 유린기 멘보샤를 시그니처 세트로 한번에 짜장면 랩소디 삼성역 코엑스 맛집</t>
+          <t>노량진수산시장 횟집 민어모듬회포장 인어교주해적단 활어 95호 노량진 주문진 추천</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/ejdh90/223536389270</t>
+          <t>https://blog.naver.com/popo33311/223536388907</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA332EC10&gt;</t>
+          <t>주문진</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA332E5E0&gt;</t>
+          <t>서울특별시 동작구 노들로 688 노량진수산시장 1층 남2문 활어112호</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2024-08-05 00:15</t>
+          <t>2024-08-05 01:49</t>
         </is>
       </c>
     </row>
@@ -791,27 +791,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>노량진수산시장 횟집 민어모듬회포장 인어교주해적단 활어 95호 노량진 주문진 추천</t>
+          <t>[서울] 애견 동반 가능한 망원동 대형 카페 | 우이그 Uig</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/popo33311/223536388907</t>
+          <t>https://blog.naver.com/subong3910/223536124250</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA332EC70&gt;</t>
+          <t>Uig</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA332EF70&gt;</t>
+          <t>서울특별시 마포구 망원로3길 7</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2024-08-05 00:15</t>
+          <t>2024-08-05 01:49</t>
         </is>
       </c>
     </row>
@@ -826,27 +826,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[서울] 애견 동반 가능한 망원동 대형 카페 | 우이그 Uig</t>
+          <t>합정역 맛집 인기많은 고기집 천이오겹살</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/subong3910/223536124250</t>
+          <t>https://blog.naver.com/gyunghoony/223535887745</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA266D370&gt;</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA32C8A60&gt;</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2024-08-05 00:15</t>
+          <t>2024-08-05 01:49</t>
         </is>
       </c>
     </row>
@@ -861,27 +861,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>합정역 맛집 인기많은 고기집 천이오겹살</t>
+          <t>부산 기장 아난티 근처 맛집 기장 철마 한우 맛집 형제가든 방갈로</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/gyunghoony/223535887745</t>
+          <t>https://blog.naver.com/mjk2797/223536463330</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA2736850&gt;</t>
+          <t>형제가든</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA32C8A30&gt;</t>
+          <t>부산광역시 기장군 철마면 석길길 16-6 형제가든</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2024-08-05 00:15</t>
+          <t>2024-08-05 01:49</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA3327B50&gt;</t>
+          <t>우봉</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA3327910&gt;</t>
+          <t>부산광역시 해운대구 마린시티1로 155 2층 우봉</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-08-05 00:15</t>
+          <t>2024-08-05 01:49</t>
         </is>
       </c>
     </row>
@@ -941,17 +941,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA325BFA0&gt;</t>
+          <t>만리포해수욕장</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA325BD60&gt;</t>
+          <t>충청남도 태안군 소원면 모항리</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2024-08-05 00:15</t>
+          <t>2024-08-05 01:49</t>
         </is>
       </c>
     </row>
@@ -976,17 +976,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA332E7C0&gt;</t>
+          <t>로아누</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA332E340&gt;</t>
+          <t>부산광역시 기장군 일광읍 기장대로 868-34</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2024-08-05 00:15</t>
+          <t>2024-08-05 01:49</t>
         </is>
       </c>
     </row>
@@ -1011,17 +1011,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA332E790&gt;</t>
+          <t>도꼭지 KT송파타워점</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA332ED90&gt;</t>
+          <t>서울특별시 송파구 잠실로 209 KT송파타워 2층 12, 13호</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2024-08-05 00:15</t>
+          <t>2024-08-05 01:49</t>
         </is>
       </c>
     </row>
@@ -1036,27 +1036,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>속초 대게 맛집 대포항 횟집 구성 좋은 대포어촌회센타 후기</t>
+          <t>분위기 좋은 창원칵테일바 용호동 휴미락에서 칵테일 오마카세 먹은 후기</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://blog.naver.com/mjk2797/223535927547</t>
+          <t>https://blog.naver.com/s0_0_/223536485791</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA332E2E0&gt;</t>
+          <t>휴미락</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA332E700&gt;</t>
+          <t>경상남도 창원시 성산구 용지로153번길 12 201호</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2024-08-05 00:15</t>
+          <t>2024-08-05 01:49</t>
         </is>
       </c>
     </row>
@@ -1081,17 +1081,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA332EB80&gt;</t>
+          <t>위스키파크 강동점</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA332E280&gt;</t>
+          <t>서울특별시 강동구 풍성로39길 33 1층</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2024-08-05 00:15</t>
+          <t>2024-08-05 01:49</t>
         </is>
       </c>
     </row>
@@ -1116,17 +1116,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA332EA90&gt;</t>
+          <t>샤브20 천안구성점</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA332E490&gt;</t>
+          <t>충청남도 천안시 동남구 청수로 115 2층</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2024-08-05 00:15</t>
+          <t>2024-08-05 01:49</t>
         </is>
       </c>
     </row>
@@ -1151,17 +1151,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA332EF40&gt;</t>
+          <t>신백옥양꼬치 경기광주점</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;map object at 0x0000025AA332E520&gt;</t>
+          <t>경기도 광주시 태봉로 8-4 2층</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2024-08-05 00:15</t>
+          <t>2024-08-05 01:49</t>
         </is>
       </c>
     </row>
